--- a/power_comp_1_row_40_10_col_2.xlsx
+++ b/power_comp_1_row_40_10_col_2.xlsx
@@ -62,34 +62,37 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0274</t>
+    <t xml:space="preserve">&lt; -0.0273</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0855 -0.0468</t>
+    <t xml:space="preserve">0.0851 -0.0468</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0133</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0631</t>
+    <t xml:space="preserve">&lt; -0.063</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0675</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt; -0.0762</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt; -0.0674</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2733 -0.0195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6549 0.014</t>
+    <t xml:space="preserve">&lt; -0.0489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2749 -0.0194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6566 0.014</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0357</t>
@@ -98,13 +101,13 @@
     <t xml:space="preserve">&lt; -0.0401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0263 -0.0401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0137 -0.0401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7024 0.0295</t>
+    <t xml:space="preserve">0.0265 -0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0139 -0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7038 0.0295</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
@@ -113,100 +116,97 @@
     <t xml:space="preserve">0.9792 0.063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73 0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7142 0.0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5766 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6805 0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7988 0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2962 -0.0295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8618 0.0335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5356 -0.0162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5068 -0.0207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4086 -0.0295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4402 -0.0206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4923 -0.0206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0498</t>
+    <t xml:space="preserve">0.7275 0.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7125 0.0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5784 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6847 0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7982 0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295 -0.0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8622 0.0335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5345 -0.0162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5063 -0.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4103 -0.0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4436 -0.0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4933 -0.0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0497</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0542</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.063</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt; -0.0541</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0035 -0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3307 -0.0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2308 -0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3183 -0.0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0345 -0.0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4316 1e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2465 -0.0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511 1e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5006 0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3842 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8141 0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4786 -0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2837 -0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6931 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1804 -0.0089</t>
+    <t xml:space="preserve">0.0036 -0.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3325 -0.0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2331 -0.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3202 -0.0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0349 -0.0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4337 1e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2481 -0.0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5141 1e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5026 0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3822 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8125 0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4766 -0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2796 -0.0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6927 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181 -0.0089</t>
   </si>
 </sst>
 </file>
@@ -614,19 +614,19 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -643,40 +643,40 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -693,37 +693,37 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -743,34 +743,34 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -793,31 +793,31 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -843,28 +843,28 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
@@ -1143,10 +1143,10 @@
         <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
